--- a/APM files/125325092/125325092 EXPORT Compensation Cloud Export.xlsx
+++ b/APM files/125325092/125325092 EXPORT Compensation Cloud Export.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elias\dev\workspace\APM files\125325092\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86526352-D7C2-4B5E-A5E0-32F9BE4DE72A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3CE90E7-8D35-4C25-8BB9-61F6461F6584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11985" yWindow="5580" windowWidth="21510" windowHeight="13215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13575" yWindow="4290" windowWidth="21510" windowHeight="13215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="10">
   <si>
     <t>Hotel ID</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>99564168</t>
+  </si>
+  <si>
+    <t>99565356</t>
+  </si>
+  <si>
+    <t>69700134</t>
+  </si>
+  <si>
+    <t>70797485</t>
+  </si>
+  <si>
+    <t>71663188</t>
   </si>
 </sst>
 </file>
@@ -426,7 +441,7 @@
   <dimension ref="A1:D70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,9 +460,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>92329006</v>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>7421795</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -456,94 +471,262 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-    </row>
-    <row r="17" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-    </row>
-    <row r="18" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-    </row>
-    <row r="19" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-    </row>
-    <row r="20" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-    </row>
-    <row r="21" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-    </row>
-    <row r="22" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-    </row>
-    <row r="23" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-    </row>
-    <row r="24" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>88682948</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>81755833</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1357274</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>92329461</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>53264</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>76483631</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>96131965</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>82623706</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>88620139</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>83282123</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>34879349</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>99040983</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>42718487</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>100352744</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>91084948</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>33356684</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
     </row>
-    <row r="25" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
     </row>
-    <row r="26" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
     </row>
-    <row r="27" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
     </row>
-    <row r="28" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
     </row>
-    <row r="29" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
     </row>
-    <row r="30" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
     </row>
-    <row r="31" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
     </row>
-    <row r="32" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
     </row>
     <row r="33" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
